--- a/Monitor & Control/Risk Management/LHWA_IMA.xlsx
+++ b/Monitor & Control/Risk Management/LHWA_IMA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mai Ashraf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/877c10de5faafcf8/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C133697-C7DD-47C7-AE48-3FB7F1D66899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C4F14F5E-13EA-4791-B509-ED4C3629D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Minimum Service Level &amp; Recovery Priority</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Mandatory field</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>If mitigation not in place</t>
   </si>
   <si>
-    <t>Mai Ashraf</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
   </si>
   <si>
     <t>Version Date</t>
-  </si>
-  <si>
-    <t>13/5/2022</t>
   </si>
   <si>
     <t>Team Structure Change</t>
@@ -399,6 +390,33 @@
   <si>
     <t xml:space="preserve"> 1. Team Member has been assigned to the responsibilities of PM (Maha)".
 2. Tasks has been assigned to the members again on Trello.</t>
+  </si>
+  <si>
+    <t>Customer Change requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development </t>
+  </si>
+  <si>
+    <t>The Customer sent a mail to make some changes to the project, requested to delete some features from the project. The features are: notifications feature and follow feature. The Project Manager approved the requests after discussing that with the development team.</t>
+  </si>
+  <si>
+    <t>Accepted the change</t>
+  </si>
+  <si>
+    <t>1. Making an Impact Analysis.
+2. Informing the team and Tasks had been reassigned to the members again on Trello.
+3. Reschudeling the time range.
+4. Updating the required deliverables.</t>
+  </si>
+  <si>
+    <t>Maha Mohamed</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>17/5/2022</t>
   </si>
 </sst>
 </file>
@@ -406,7 +424,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1049,7 +1067,7 @@
     <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1117,10 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1191,9 +1209,9 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="RTO" name="Recovery Time Objective" queryTableFieldId="7" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="RPO" name="Recovery Point Objective" queryTableFieldId="8" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="RiskMit" name="Risk Mitigation" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="MinSerLev" name="Minimum Service Level &amp; Recovery Priority" queryTableFieldId="10" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="MitOwn" name="Mitigation Owner" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="RevDate" name="Review Date " queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="MinSerLev" name="Minimum Service Level &amp; Recovery Priority" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="MitOwn" name="Mitigation Owner" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="RevDate" name="Review Date " queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,8 +1544,8 @@
   <dimension ref="A1:BH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,49 +1567,49 @@
   <sheetData>
     <row r="1" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="18">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8"/>
@@ -1607,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1631,23 +1649,23 @@
         <v>6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7"/>
       <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="1:60" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1656,49 +1674,67 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7"/>
       <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="1:60" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7"/>
       <c r="BH8" s="1"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="J9" s="3"/>
+    <row r="9" spans="1:60" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="BH9" s="1"/>
     </row>

--- a/Monitor & Control/Risk Management/LHWA_IMA.xlsx
+++ b/Monitor & Control/Risk Management/LHWA_IMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/877c10de5faafcf8/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C4F14F5E-13EA-4791-B509-ED4C3629D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7CB4D0-B4D0-4DF9-9486-6759792F7F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -416,7 +416,13 @@
     <t>Project Manager</t>
   </si>
   <si>
-    <t>17/5/2022</t>
+    <t>PM Change</t>
+  </si>
+  <si>
+    <t>19/5/2022</t>
+  </si>
+  <si>
+    <t>PM of the team changed</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1069,6 +1075,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1544,7 +1553,7 @@
   <dimension ref="A1:BH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1596,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="18">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>14</v>
@@ -1609,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8"/>
@@ -1738,14 +1747,31 @@
       <c r="K9" s="7"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="J10" s="3"/>
+    <row r="10" spans="1:60" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="BH10" s="1"/>
     </row>
@@ -1953,61 +1979,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D828F4265328F4FB44D9FCDC910D19C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c31cdf66164c0d689e29cf890174b457">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39cb9de5-b30c-4e61-b944-edd29064b001" xmlns:ns3="978fb9ad-7fde-4720-8c84-b4c35ec43a53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e724f969ab99161a50c1107633448291" ns2:_="" ns3:_="">
     <xsd:import namespace="39cb9de5-b30c-4e61-b944-edd29064b001"/>
@@ -2305,6 +2276,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2692C2-18CE-48F1-8E7E-20C5B4243158}">
   <ds:schemaRefs>
@@ -2317,22 +2343,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18431150-6B3A-4626-AA70-7213C1D94AD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E17D8469-86A7-4E47-8B87-62BC94791B68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E3C49-94BD-4803-94C0-E2E839E2847E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2349,4 +2359,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E17D8469-86A7-4E47-8B87-62BC94791B68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18431150-6B3A-4626-AA70-7213C1D94AD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>